--- a/extras.xlsx
+++ b/extras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Documents\GitHub\AB_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C17E1A-F6D0-4F0C-A4D3-F3D6FB46234E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A3CE71-F621-46D7-AC4E-B0A0D0FABB81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2AC9E200-2B89-443F-8246-0E220594C8CF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
   <si>
     <t>AB</t>
   </si>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6541CBBE-7D6C-4CB5-AD96-7BC39270FB16}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,14 +416,14 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <f>IF(MID(B1,1,3)="lag",MID(B1,4,1)*1,IF(MID(B1,1,3)="gap", 2,IF(MID(B1,1,3)="pri",4,99)))</f>
+        <f t="shared" ref="C1:C13" si="0">IF(MID(B1,1,3)="lag",MID(B1,4,1)*1,IF(MID(B1,1,3)="gap", 2,IF(MID(B1,1,3)="pri",4,99)))</f>
         <v>4</v>
       </c>
       <c r="D1">
         <v>3</v>
       </c>
       <c r="E1">
-        <f>D1+C1</f>
+        <f t="shared" ref="E1:E13" si="1">D1+C1</f>
         <v>7</v>
       </c>
       <c r="F1">
@@ -444,14 +444,14 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>IF(MID(B2,1,3)="lag",MID(B2,4,1)*1,IF(MID(B2,1,3)="gap", 2,IF(MID(B2,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <f>D2+C2</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F2">
@@ -472,14 +472,14 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>IF(MID(B3,1,3)="lag",MID(B3,4,1)*1,IF(MID(B3,1,3)="gap", 2,IF(MID(B3,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <f>D3+C3</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F3">
@@ -500,14 +500,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f>IF(MID(B4,1,3)="lag",MID(B4,4,1)*1,IF(MID(B4,1,3)="gap", 2,IF(MID(B4,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <f>D4+C4</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F4">
@@ -528,14 +528,14 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>IF(MID(B5,1,3)="lag",MID(B5,4,1)*1,IF(MID(B5,1,3)="gap", 2,IF(MID(B5,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <f>D5+C5</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F5">
@@ -556,14 +556,14 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f>IF(MID(B6,1,3)="lag",MID(B6,4,1)*1,IF(MID(B6,1,3)="gap", 2,IF(MID(B6,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <f>D6+C6</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F6">
@@ -584,14 +584,14 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>IF(MID(B7,1,3)="lag",MID(B7,4,1)*1,IF(MID(B7,1,3)="gap", 2,IF(MID(B7,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
-        <f>D7+C7</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F7">
@@ -612,14 +612,14 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f>IF(MID(B8,1,3)="lag",MID(B8,4,1)*1,IF(MID(B8,1,3)="gap", 2,IF(MID(B8,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <f>D8+C8</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F8">
@@ -640,14 +640,14 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <f>IF(MID(B9,1,3)="lag",MID(B9,4,1)*1,IF(MID(B9,1,3)="gap", 2,IF(MID(B9,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <f>D9+C9</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F9">
@@ -668,14 +668,14 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <f>IF(MID(B10,1,3)="lag",MID(B10,4,1)*1,IF(MID(B10,1,3)="gap", 2,IF(MID(B10,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
-        <f>D10+C10</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F10">
@@ -696,14 +696,14 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <f>IF(MID(B11,1,3)="lag",MID(B11,4,1)*1,IF(MID(B11,1,3)="gap", 2,IF(MID(B11,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <f>D11+C11</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F11">
@@ -724,14 +724,14 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <f>IF(MID(B12,1,3)="lag",MID(B12,4,1)*1,IF(MID(B12,1,3)="gap", 2,IF(MID(B12,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12">
-        <f>D12+C12</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F12">
@@ -752,14 +752,14 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <f>IF(MID(B13,1,3)="lag",MID(B13,4,1)*1,IF(MID(B13,1,3)="gap", 2,IF(MID(B13,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13">
-        <f>D13+C13</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F13">
@@ -769,6 +769,370 @@
         <v>0.05</v>
       </c>
       <c r="H13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>IF(MID(B20,1,3)="lag",MID(B20,4,1)*1,IF(MID(B20,1,3)="gap", 2,IF(MID(B20,1,3)="pri",4,99)))</f>
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f>D20+C20</f>
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>0.2</v>
+      </c>
+      <c r="G20">
+        <v>0.05</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f>IF(MID(B21,1,3)="lag",MID(B21,4,1)*1,IF(MID(B21,1,3)="gap", 2,IF(MID(B21,1,3)="pri",4,99)))</f>
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f>D21+C21</f>
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>0.05</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f>IF(MID(B22,1,3)="lag",MID(B22,4,1)*1,IF(MID(B22,1,3)="gap", 2,IF(MID(B22,1,3)="pri",4,99)))</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f>D22+C22</f>
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22">
+        <v>0.05</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f>IF(MID(B23,1,3)="lag",MID(B23,4,1)*1,IF(MID(B23,1,3)="gap", 2,IF(MID(B23,1,3)="pri",4,99)))</f>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <f>D23+C23</f>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23">
+        <v>0.05</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f>IF(MID(B24,1,3)="lag",MID(B24,4,1)*1,IF(MID(B24,1,3)="gap", 2,IF(MID(B24,1,3)="pri",4,99)))</f>
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <f>D24+C24</f>
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>0.05</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <f>IF(MID(B25,1,3)="lag",MID(B25,4,1)*1,IF(MID(B25,1,3)="gap", 2,IF(MID(B25,1,3)="pri",4,99)))</f>
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f>D25+C25</f>
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>0.2</v>
+      </c>
+      <c r="G25">
+        <v>0.05</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f>IF(MID(B26,1,3)="lag",MID(B26,4,1)*1,IF(MID(B26,1,3)="gap", 2,IF(MID(B26,1,3)="pri",4,99)))</f>
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <f>D26+C26</f>
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+      <c r="G26">
+        <v>0.05</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <f>IF(MID(B27,1,3)="lag",MID(B27,4,1)*1,IF(MID(B27,1,3)="gap", 2,IF(MID(B27,1,3)="pri",4,99)))</f>
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <f>D27+C27</f>
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27">
+        <v>0.05</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <f>IF(MID(B28,1,3)="lag",MID(B28,4,1)*1,IF(MID(B28,1,3)="gap", 2,IF(MID(B28,1,3)="pri",4,99)))</f>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <f>D28+C28</f>
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>0.2</v>
+      </c>
+      <c r="G28">
+        <v>0.05</v>
+      </c>
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <f>IF(MID(B29,1,3)="lag",MID(B29,4,1)*1,IF(MID(B29,1,3)="gap", 2,IF(MID(B29,1,3)="pri",4,99)))</f>
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <f>D29+C29</f>
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+      <c r="G29">
+        <v>0.05</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <f>IF(MID(B30,1,3)="lag",MID(B30,4,1)*1,IF(MID(B30,1,3)="gap", 2,IF(MID(B30,1,3)="pri",4,99)))</f>
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f>D30+C30</f>
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
+        <v>0.05</v>
+      </c>
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f>IF(MID(B31,1,3)="lag",MID(B31,4,1)*1,IF(MID(B31,1,3)="gap", 2,IF(MID(B31,1,3)="pri",4,99)))</f>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <f>D31+C31</f>
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>0.2</v>
+      </c>
+      <c r="G31">
+        <v>0.05</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f>IF(MID(B32,1,3)="lag",MID(B32,4,1)*1,IF(MID(B32,1,3)="gap", 2,IF(MID(B32,1,3)="pri",4,99)))</f>
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <f>D32+C32</f>
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>0.2</v>
+      </c>
+      <c r="G32">
+        <v>0.05</v>
+      </c>
+      <c r="H32">
         <v>0.5</v>
       </c>
     </row>
